--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1980.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1980.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.250749312975695</v>
+        <v>0.6126695871353149</v>
       </c>
       <c r="B1">
-        <v>2.29911451780773</v>
+        <v>1.337053537368774</v>
       </c>
       <c r="C1">
-        <v>8.668988905195993</v>
+        <v>2.470052719116211</v>
       </c>
       <c r="D1">
-        <v>2.50570131027877</v>
+        <v>5.866518020629883</v>
       </c>
       <c r="E1">
-        <v>1.130879413518086</v>
+        <v>2.077924489974976</v>
       </c>
     </row>
   </sheetData>
